--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1873.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1873.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.583993679691942</v>
+        <v>2.375614404678345</v>
       </c>
       <c r="B1">
-        <v>4.181196356697091</v>
+        <v>2.189620494842529</v>
       </c>
       <c r="C1">
-        <v>4.625383032006897</v>
+        <v>2.084326267242432</v>
       </c>
       <c r="D1">
-        <v>1.24642117813285</v>
+        <v>2.715598106384277</v>
       </c>
       <c r="E1">
-        <v>0.7334260620063494</v>
+        <v>3.98919939994812</v>
       </c>
     </row>
   </sheetData>
